--- a/100runs/run072/NotionalETEOutput072.xlsx
+++ b/100runs/run072/NotionalETEOutput072.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,28 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
-  </si>
-  <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_418.MISSILE_HELLMASKER_418</t>
+    <t>MISSILE_HIGHWIND_463.MISSILE_HIGHWIND_463</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_245.MISSILE_SOMERSAULT_245</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND_102.MISSILE_HIGHWIND_102</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HIGHWIND_205.MISSILE_HIGHWIND_205</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
@@ -431,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,31 +465,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G2">
-        <v>-147.2992210700449</v>
+        <v>4841124.118422275</v>
       </c>
       <c r="H2">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I2">
-        <v>-1576.236543386869</v>
+        <v>1114863.38214687</v>
       </c>
       <c r="J2">
-        <v>2186.777874109231</v>
+        <v>4843238.270888586</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984365.827203144</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,31 +500,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G3">
-        <v>-147.2992210700449</v>
+        <v>4841124.118422275</v>
       </c>
       <c r="H3">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I3">
-        <v>-1545.117436916548</v>
+        <v>1114892.996197116</v>
       </c>
       <c r="J3">
-        <v>2133.582765762624</v>
+        <v>4843189.619149708</v>
       </c>
       <c r="K3">
-        <v>338.0197070770352</v>
+        <v>3984669.622852469</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,31 +535,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G4">
-        <v>-147.2992210700449</v>
+        <v>4841124.118422275</v>
       </c>
       <c r="H4">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I4">
-        <v>-1513.232051078449</v>
+        <v>1114923.339466105</v>
       </c>
       <c r="J4">
-        <v>2080.387657416017</v>
+        <v>4843140.967410831</v>
       </c>
       <c r="K4">
-        <v>659.1842021324964</v>
+        <v>3984958.269858169</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,31 +570,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G5">
-        <v>-147.2992210700449</v>
+        <v>4841124.118422275</v>
       </c>
       <c r="H5">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I5">
-        <v>-1480.561516948103</v>
+        <v>1114954.429910178</v>
       </c>
       <c r="J5">
-        <v>2027.19254906941</v>
+        <v>4843092.315671953</v>
       </c>
       <c r="K5">
-        <v>963.4934851663859</v>
+        <v>3985231.768220245</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,31 +605,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G6">
-        <v>-147.2992210700449</v>
+        <v>4841124.118422275</v>
       </c>
       <c r="H6">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I6">
-        <v>-1447.086500971139</v>
+        <v>1114986.285927834</v>
       </c>
       <c r="J6">
-        <v>1973.997440722803</v>
+        <v>4843043.663933077</v>
       </c>
       <c r="K6">
-        <v>1250.947556178702</v>
+        <v>3985490.117938696</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,31 +640,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G7">
-        <v>-147.2992210700449</v>
+        <v>4841124.118422275</v>
       </c>
       <c r="H7">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I7">
-        <v>-1412.787193522191</v>
+        <v>1115018.926370617</v>
       </c>
       <c r="J7">
-        <v>1920.802332376196</v>
+        <v>4842995.012194199</v>
       </c>
       <c r="K7">
-        <v>1521.546415169446</v>
+        <v>3985733.319013523</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,31 +675,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G8">
-        <v>-147.2992210700449</v>
+        <v>4841124.118422275</v>
       </c>
       <c r="H8">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I8">
-        <v>-1377.643297182097</v>
+        <v>1115052.370554275</v>
       </c>
       <c r="J8">
-        <v>1867.607224029589</v>
+        <v>4842946.360455321</v>
       </c>
       <c r="K8">
-        <v>1775.290062138618</v>
+        <v>3985961.371444725</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,31 +710,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G9">
-        <v>-147.2992210700449</v>
+        <v>4841124.118422275</v>
       </c>
       <c r="H9">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I9">
-        <v>-1341.63401472642</v>
+        <v>1115086.638270187</v>
       </c>
       <c r="J9">
-        <v>1814.412115682981</v>
+        <v>4842897.708716445</v>
       </c>
       <c r="K9">
-        <v>2012.178497086217</v>
+        <v>3986174.275232302</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,31 +745,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>214.9215956529323</v>
+        <v>1116580.205676009</v>
       </c>
       <c r="G10">
-        <v>-122.9759734710837</v>
+        <v>4841140.631239968</v>
       </c>
       <c r="H10">
-        <v>647.1166231694948</v>
+        <v>3985232.709623995</v>
       </c>
       <c r="I10">
-        <v>-1304.738036818205</v>
+        <v>1115121.749797079</v>
       </c>
       <c r="J10">
-        <v>1761.217007336375</v>
+        <v>4842849.056977567</v>
       </c>
       <c r="K10">
-        <v>2232.211720012242</v>
+        <v>3986372.030376255</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,31 +780,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.8042302189127</v>
+        <v>1116531.525038043</v>
       </c>
       <c r="G11">
-        <v>-98.65272587212255</v>
+        <v>4841157.144057661</v>
       </c>
       <c r="H11">
-        <v>797.2433252609409</v>
+        <v>3985431.964249826</v>
       </c>
       <c r="I11">
-        <v>-1266.933529397677</v>
+        <v>1115157.725913018</v>
       </c>
       <c r="J11">
-        <v>1708.021898989768</v>
+        <v>4842800.405238691</v>
       </c>
       <c r="K11">
-        <v>2435.389730916694</v>
+        <v>3986554.636876583</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,31 +815,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>138.5376918540447</v>
+        <v>1116502.927605322</v>
       </c>
       <c r="G12">
-        <v>-74.32947827316139</v>
+        <v>4841173.656875354</v>
       </c>
       <c r="H12">
-        <v>886.6664667976313</v>
+        <v>3985550.650495239</v>
       </c>
       <c r="I12">
-        <v>-1228.198120761428</v>
+        <v>1115194.587907714</v>
       </c>
       <c r="J12">
-        <v>1654.826790643161</v>
+        <v>4842751.753499812</v>
       </c>
       <c r="K12">
-        <v>2621.712529799575</v>
+        <v>3986722.094733287</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,31 +850,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.6937790999643</v>
+        <v>1116484.874807775</v>
       </c>
       <c r="G13">
-        <v>-50.0062306742002</v>
+        <v>4841190.169693048</v>
       </c>
       <c r="H13">
-        <v>950.5711421748205</v>
+        <v>3985635.467533139</v>
       </c>
       <c r="I13">
-        <v>-1188.508888323433</v>
+        <v>1115232.357595118</v>
       </c>
       <c r="J13">
-        <v>1601.631682296553</v>
+        <v>4842703.101760935</v>
       </c>
       <c r="K13">
-        <v>2791.180116660883</v>
+        <v>3986874.403946365</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,31 +885,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.2495067779629</v>
+        <v>1116472.284860046</v>
       </c>
       <c r="G14">
-        <v>-25.68298307523902</v>
+        <v>4841206.68251074</v>
       </c>
       <c r="H14">
-        <v>1000.333678654083</v>
+        <v>3985701.51451511</v>
       </c>
       <c r="I14">
-        <v>-1147.842345050077</v>
+        <v>1115271.057326326</v>
       </c>
       <c r="J14">
-        <v>1548.436573949946</v>
+        <v>4842654.450022059</v>
       </c>
       <c r="K14">
-        <v>2943.792491500619</v>
+        <v>3987011.56451582</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,31 +920,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.96570696231355</v>
+        <v>1116462.892382015</v>
       </c>
       <c r="G15">
-        <v>-1.359735476277851</v>
+        <v>4841223.195328434</v>
       </c>
       <c r="H15">
-        <v>1041.093055964767</v>
+        <v>3985755.612116416</v>
       </c>
       <c r="I15">
-        <v>-1106.174425561149</v>
+        <v>1115310.710002812</v>
       </c>
       <c r="J15">
-        <v>1495.241465603339</v>
+        <v>4842605.798283181</v>
       </c>
       <c r="K15">
-        <v>3079.549654318781</v>
+        <v>3987133.576441649</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,31 +955,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.70707195068462</v>
+        <v>1116455.548775815</v>
       </c>
       <c r="G16">
-        <v>22.96351212268333</v>
+        <v>4841239.708146126</v>
       </c>
       <c r="H16">
-        <v>1075.613273256579</v>
+        <v>3985801.428835789</v>
       </c>
       <c r="I16">
-        <v>-1063.480471888589</v>
+        <v>1115351.339089977</v>
       </c>
       <c r="J16">
-        <v>1442.046357256732</v>
+        <v>4842557.146544304</v>
       </c>
       <c r="K16">
-        <v>3198.451605115371</v>
+        <v>3987240.439723854</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,31 +990,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.83430770773147</v>
+        <v>1116449.607263694</v>
       </c>
       <c r="G17">
-        <v>47.28675972164451</v>
+        <v>4841256.22096382</v>
       </c>
       <c r="H17">
-        <v>1105.553274688699</v>
+        <v>3985841.166495376</v>
       </c>
       <c r="I17">
-        <v>-1019.735218884559</v>
+        <v>1115392.968631035</v>
       </c>
       <c r="J17">
-        <v>1388.851248910125</v>
+        <v>4842508.494805426</v>
       </c>
       <c r="K17">
-        <v>3300.498343890387</v>
+        <v>3987332.154362435</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,31 +1025,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.95782080295173</v>
+        <v>1116444.673691553</v>
       </c>
       <c r="G18">
-        <v>71.61000732060567</v>
+        <v>4841272.733781513</v>
       </c>
       <c r="H18">
-        <v>1131.987333279386</v>
+        <v>3985876.250916603</v>
       </c>
       <c r="I18">
-        <v>-974.9127792701994</v>
+        <v>1115435.623261243</v>
       </c>
       <c r="J18">
-        <v>1335.656140563518</v>
+        <v>4842459.843066549</v>
       </c>
       <c r="K18">
-        <v>3385.689870643832</v>
+        <v>3987408.720357391</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,31 +1060,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.82536506120167</v>
+        <v>1116440.49286037</v>
       </c>
       <c r="G19">
-        <v>95.93325491956689</v>
+        <v>4841289.246599205</v>
       </c>
       <c r="H19">
-        <v>1155.651135014023</v>
+        <v>3985907.658533601</v>
       </c>
       <c r="I19">
-        <v>-928.9866283162246</v>
+        <v>1115479.328222479</v>
       </c>
       <c r="J19">
-        <v>1282.461032216911</v>
+        <v>4842411.191327672</v>
       </c>
       <c r="K19">
-        <v>3454.026185375704</v>
+        <v>3987470.137708722</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,31 +1095,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.26565760357984</v>
+        <v>1116436.891482189</v>
       </c>
       <c r="G20">
-        <v>120.2565025185281</v>
+        <v>4841305.759416899</v>
       </c>
       <c r="H20">
-        <v>1177.070633928458</v>
+        <v>3985936.08741522</v>
       </c>
       <c r="I20">
-        <v>-881.9295881462923</v>
+        <v>1115524.109378177</v>
       </c>
       <c r="J20">
-        <v>1229.265923870304</v>
+        <v>4842362.539588794</v>
       </c>
       <c r="K20">
-        <v>3505.507288086003</v>
+        <v>3987516.406416429</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,31 +1130,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>70.15784905681774</v>
+        <v>1116433.747292947</v>
       </c>
       <c r="G21">
-        <v>144.5797501174892</v>
+        <v>4841322.272234592</v>
       </c>
       <c r="H21">
-        <v>1196.634900462376</v>
+        <v>3985962.053952509</v>
       </c>
       <c r="I21">
-        <v>-833.7138116538588</v>
+        <v>1115569.993228637</v>
       </c>
       <c r="J21">
-        <v>1176.070815523697</v>
+        <v>4842313.887849918</v>
       </c>
       <c r="K21">
-        <v>3540.133178774729</v>
+        <v>3987547.526480511</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,31 +1165,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.413947843335</v>
+        <v>1116430.971271019</v>
       </c>
       <c r="G22">
-        <v>168.9029977164504</v>
+        <v>4841338.785052285</v>
       </c>
       <c r="H22">
-        <v>1214.639852677948</v>
+        <v>3985985.950900665</v>
       </c>
       <c r="I22">
-        <v>-784.3107660229998</v>
+        <v>1115617.006926701</v>
       </c>
       <c r="J22">
-        <v>1122.87570717709</v>
+        <v>4842265.23611104</v>
       </c>
       <c r="K22">
-        <v>3557.903857441883</v>
+        <v>3987563.497900968</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,31 +1200,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.96817993771427</v>
+        <v>1116428.496872413</v>
       </c>
       <c r="G23">
-        <v>193.2262453154116</v>
+        <v>4841355.297869978</v>
       </c>
       <c r="H23">
-        <v>1231.315807945925</v>
+        <v>3986008.083946826</v>
       </c>
       <c r="I23">
-        <v>-733.6912158434495</v>
+        <v>1115665.178293829</v>
       </c>
       <c r="J23">
-        <v>1069.680598830483</v>
+        <v>4842216.584372163</v>
       </c>
       <c r="K23">
-        <v>3558.819324087463</v>
+        <v>3987564.320677802</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,31 +1235,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.77027121683616</v>
+        <v>1116426.273234486</v>
       </c>
       <c r="G24">
-        <v>217.5494929143728</v>
+        <v>4841371.810687671</v>
       </c>
       <c r="H24">
-        <v>1246.845546054177</v>
+        <v>3986028.695684198</v>
       </c>
       <c r="I24">
-        <v>-681.8252058098603</v>
+        <v>1115714.535836555</v>
       </c>
       <c r="J24">
-        <v>1016.485490483876</v>
+        <v>4842167.932633285</v>
       </c>
       <c r="K24">
-        <v>3542.879578711472</v>
+        <v>3987549.994811009</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,31 +1270,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.78105297304867</v>
+        <v>1116424.260730013</v>
       </c>
       <c r="G25">
-        <v>241.872740513334</v>
+        <v>4841388.323505363</v>
       </c>
       <c r="H25">
-        <v>1261.376553646509</v>
+        <v>3986047.981863408</v>
       </c>
       <c r="I25">
-        <v>-628.6820429950477</v>
+        <v>1115765.108763363</v>
       </c>
       <c r="J25">
-        <v>963.2903821372689</v>
+        <v>4842119.280894408</v>
       </c>
       <c r="K25">
-        <v>3510.084621313908</v>
+        <v>3987520.520300593</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,31 +1305,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.9694983322809</v>
+        <v>1116422.427968912</v>
       </c>
       <c r="G26">
-        <v>266.1959881122951</v>
+        <v>4841404.836323057</v>
       </c>
       <c r="H26">
-        <v>1275.029563732298</v>
+        <v>3986066.102726507</v>
       </c>
       <c r="I26">
-        <v>-574.230278686734</v>
+        <v>1115816.927001968</v>
       </c>
       <c r="J26">
-        <v>910.0952737906617</v>
+        <v>4842070.629155532</v>
       </c>
       <c r="K26">
-        <v>3460.434451894771</v>
+        <v>3987475.897146552</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,31 +1340,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.31067025861935</v>
+        <v>1116420.74972223</v>
       </c>
       <c r="G27">
-        <v>290.5192357112563</v>
+        <v>4841421.349140749</v>
       </c>
       <c r="H27">
-        <v>1287.904659091393</v>
+        <v>3986083.191107671</v>
       </c>
       <c r="I27">
-        <v>-518.4376897770327</v>
+        <v>1115870.021217025</v>
       </c>
       <c r="J27">
-        <v>856.9001654440546</v>
+        <v>4842021.977416653</v>
       </c>
       <c r="K27">
-        <v>3393.929070454061</v>
+        <v>3987416.125348886</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,31 +1375,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.78426760116164</v>
+        <v>1116419.205451165</v>
       </c>
       <c r="G28">
-        <v>314.8424833102175</v>
+        <v>4841437.861958442</v>
       </c>
       <c r="H28">
-        <v>1300.085728701743</v>
+        <v>3986099.358347966</v>
       </c>
       <c r="I28">
-        <v>-461.2712596936709</v>
+        <v>1115924.422828284</v>
       </c>
       <c r="J28">
-        <v>803.7050570974477</v>
+        <v>4841973.325677776</v>
       </c>
       <c r="K28">
-        <v>3310.568476991778</v>
+        <v>3987341.204907596</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,31 +1410,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.37357372156617</v>
+        <v>1116417.77824339</v>
       </c>
       <c r="G29">
-        <v>339.1657309091787</v>
+        <v>4841454.374776136</v>
       </c>
       <c r="H29">
-        <v>1311.643783306288</v>
+        <v>3986114.698695909</v>
       </c>
       <c r="I29">
-        <v>-402.6971588616569</v>
+        <v>1115980.16402917</v>
       </c>
       <c r="J29">
-        <v>750.5099487508405</v>
+        <v>4841924.673938899</v>
       </c>
       <c r="K29">
-        <v>3210.352671507923</v>
+        <v>3987251.135822682</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,31 +1445,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.06468237097625</v>
+        <v>1116416.454029868</v>
       </c>
       <c r="G30">
-        <v>363.4889785081398</v>
+        <v>4841470.887593828</v>
       </c>
       <c r="H30">
-        <v>1322.639463591041</v>
+        <v>3986129.292636429</v>
       </c>
       <c r="I30">
-        <v>-342.6807246838395</v>
+        <v>1116037.277805848</v>
       </c>
       <c r="J30">
-        <v>697.3148404042335</v>
+        <v>4841876.022200022</v>
       </c>
       <c r="K30">
-        <v>3093.281654002495</v>
+        <v>3987145.918094142</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,31 +1480,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.84591841914581</v>
+        <v>1116415.220998795</v>
       </c>
       <c r="G31">
-        <v>387.812226107101</v>
+        <v>4841487.400411522</v>
       </c>
       <c r="H31">
-        <v>1333.124965990661</v>
+        <v>3986143.209446885</v>
       </c>
       <c r="I31">
-        <v>-281.1864410285006</v>
+        <v>1116095.797956732</v>
       </c>
       <c r="J31">
-        <v>644.1197320576265</v>
+        <v>4841827.370461144</v>
       </c>
       <c r="K31">
-        <v>2959.355424475495</v>
+        <v>3987025.551721978</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,31 +1515,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.70739804213285</v>
+        <v>1116414.069150647</v>
       </c>
       <c r="G32">
-        <v>412.1354737060622</v>
+        <v>4841503.913229215</v>
       </c>
       <c r="H32">
-        <v>1343.145541210888</v>
+        <v>3986156.509185961</v>
       </c>
       <c r="I32">
-        <v>-218.1779172118524</v>
+        <v>1116155.759112495</v>
       </c>
       <c r="J32">
-        <v>590.9246237110194</v>
+        <v>4841778.718722267</v>
       </c>
       <c r="K32">
-        <v>2808.573982926921</v>
+        <v>3986890.03670619</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,31 +1550,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.6406903742011</v>
+        <v>1116412.989955863</v>
       </c>
       <c r="G33">
-        <v>436.4587213050233</v>
+        <v>4841520.426046908</v>
       </c>
       <c r="H33">
-        <v>1352.740674413282</v>
+        <v>3986169.244260064</v>
       </c>
       <c r="I33">
-        <v>-153.6178664629981</v>
+        <v>1116217.196756555</v>
       </c>
       <c r="J33">
-        <v>537.7295153644125</v>
+        <v>4841730.06698339</v>
       </c>
       <c r="K33">
-        <v>2640.937329356776</v>
+        <v>3986739.373046776</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,31 +1585,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.63855408705813</v>
+        <v>1116411.976088346</v>
       </c>
       <c r="G34">
-        <v>460.7819689039845</v>
+        <v>4841536.938864601</v>
       </c>
       <c r="H34">
-        <v>1361.945024916708</v>
+        <v>3986181.460670536</v>
       </c>
       <c r="I34">
-        <v>-87.46808385861061</v>
+        <v>1116280.147246078</v>
       </c>
       <c r="J34">
-        <v>484.5344070178053</v>
+        <v>4841681.415244513</v>
       </c>
       <c r="K34">
-        <v>2456.445463765057</v>
+        <v>3986573.560743738</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,31 +1620,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.69473005443313</v>
+        <v>1116411.021215701</v>
       </c>
       <c r="G35">
-        <v>485.1052165029458</v>
+        <v>4841553.451682294</v>
       </c>
       <c r="H35">
-        <v>1370.789181923341</v>
+        <v>3986193.199016683</v>
       </c>
       <c r="I35">
-        <v>-19.68942371427456</v>
+        <v>1116344.647833492</v>
       </c>
       <c r="J35">
-        <v>431.3392986711982</v>
+        <v>4841632.763505635</v>
       </c>
       <c r="K35">
-        <v>2255.098386151766</v>
+        <v>3986392.599797076</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,31 +1655,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.80377652126828</v>
+        <v>1116410.119832468</v>
       </c>
       <c r="G36">
-        <v>509.428464101907</v>
+        <v>4841569.964499987</v>
       </c>
       <c r="H36">
-        <v>1379.300277868092</v>
+        <v>3986204.495309843</v>
       </c>
       <c r="I36">
-        <v>49.75822358089201</v>
+        <v>1116410.736688532</v>
       </c>
       <c r="J36">
-        <v>378.1441903245913</v>
+        <v>4841584.111766757</v>
       </c>
       <c r="K36">
-        <v>2036.896096516902</v>
+        <v>3986196.490206789</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,31 +1690,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.96093685350081</v>
+        <v>1116409.267126333</v>
       </c>
       <c r="G37">
-        <v>533.7517117008681</v>
+        <v>4841586.47731768</v>
       </c>
       <c r="H37">
-        <v>1387.502490414033</v>
+        <v>3986215.38163965</v>
       </c>
       <c r="I37">
-        <v>120.915955300038</v>
+        <v>1116478.452920827</v>
       </c>
       <c r="J37">
-        <v>324.9490819779842</v>
+        <v>4841535.460027881</v>
       </c>
       <c r="K37">
-        <v>1801.838594860466</v>
+        <v>3985985.231972877</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,31 +1725,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.16203252430569</v>
+        <v>1116408.458869853</v>
       </c>
       <c r="G38">
-        <v>558.0749592998293</v>
+        <v>4841602.990135373</v>
       </c>
       <c r="H38">
-        <v>1395.417456505907</v>
+        <v>3986225.88672359</v>
       </c>
       <c r="I38">
-        <v>193.8258806988557</v>
+        <v>1116547.836603044</v>
       </c>
       <c r="J38">
-        <v>271.7539736313773</v>
+        <v>4841486.808289004</v>
       </c>
       <c r="K38">
-        <v>1549.925881182457</v>
+        <v>3985758.825095341</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,31 +1760,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.40337583818281</v>
+        <v>1116407.691332164</v>
       </c>
       <c r="G39">
-        <v>582.3982068987905</v>
+        <v>4841619.502953066</v>
       </c>
       <c r="H39">
-        <v>1403.064616344875</v>
+        <v>3986236.036363535</v>
       </c>
       <c r="I39">
-        <v>268.5311459347172</v>
+        <v>1116618.928794604</v>
       </c>
       <c r="J39">
-        <v>218.5588652847701</v>
+        <v>4841438.156550126</v>
       </c>
       <c r="K39">
-        <v>1281.157955482875</v>
+        <v>3985517.26957418</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,31 +1795,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.68169823139037</v>
+        <v>1116406.961206439</v>
       </c>
       <c r="G40">
-        <v>606.7214544977517</v>
+        <v>4841636.015770759</v>
       </c>
       <c r="H40">
-        <v>1410.461501052768</v>
+        <v>3986245.853827545</v>
       </c>
       <c r="I40">
-        <v>345.0759595994286</v>
+        <v>1116691.771565978</v>
       </c>
       <c r="J40">
-        <v>165.363756938163</v>
+        <v>4841389.504811249</v>
       </c>
       <c r="K40">
-        <v>995.53481776172</v>
+        <v>3985260.565409395</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,31 +1830,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.994090967517</v>
+        <v>1116406.265549892</v>
       </c>
       <c r="G41">
-        <v>631.0447020967129</v>
+        <v>4841652.528588451</v>
       </c>
       <c r="H41">
-        <v>1417.623974738028</v>
+        <v>3986255.360171149</v>
       </c>
       <c r="I41">
-        <v>423.5056188806951</v>
+        <v>1116766.408023582</v>
       </c>
       <c r="J41">
-        <v>112.1686485915561</v>
+        <v>4841340.853072371</v>
       </c>
       <c r="K41">
-        <v>693.0564680189932</v>
+        <v>3984988.712600985</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,31 +1865,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.3379557736134</v>
+        <v>1116405.601733834</v>
       </c>
       <c r="G42">
-        <v>655.3679496956739</v>
+        <v>4841669.041406145</v>
       </c>
       <c r="H42">
-        <v>1424.566439370947</v>
+        <v>3986264.574509262</v>
       </c>
       <c r="I42">
-        <v>503.8665363678009</v>
+        <v>1116842.882335291</v>
       </c>
       <c r="J42">
-        <v>58.97354024494893</v>
+        <v>4841292.201333495</v>
       </c>
       <c r="K42">
-        <v>373.7229062546928</v>
+        <v>3984701.71114895</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,31 +1900,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.71096350643263</v>
+        <v>1116404.967401857</v>
       </c>
       <c r="G43">
-        <v>679.6911972946352</v>
+        <v>4841685.554223838</v>
       </c>
       <c r="H43">
-        <v>1431.302009120997</v>
+        <v>3986273.514247573</v>
       </c>
       <c r="I43">
-        <v>586.2062675173376</v>
+        <v>1116921.23975657</v>
       </c>
       <c r="J43">
-        <v>5.778431898341784</v>
+        <v>4841243.549594617</v>
       </c>
       <c r="K43">
-        <v>37.53413246881997</v>
+        <v>3984399.561053291</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,31 +1935,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.11101934971485</v>
+        <v>1116404.360434621</v>
       </c>
       <c r="G44">
-        <v>704.0144448935963</v>
+        <v>4841702.067041531</v>
       </c>
       <c r="H44">
-        <v>1437.842659460745</v>
+        <v>3986282.195280447</v>
       </c>
       <c r="I44">
-        <v>670.5735387952673</v>
+        <v>1117001.526657261</v>
       </c>
       <c r="J44">
-        <v>-47.41667644826511</v>
+        <v>4841194.89785574</v>
       </c>
       <c r="K44">
-        <v>-315.5098533386246</v>
+        <v>3984082.262314007</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,31 +1970,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.53623335726444</v>
+        <v>1116403.778920057</v>
       </c>
       <c r="G45">
-        <v>728.3376924925575</v>
+        <v>4841718.579859224</v>
       </c>
       <c r="H45">
-        <v>1444.199355296036</v>
+        <v>3986290.632160979</v>
       </c>
       <c r="I45">
-        <v>757.01827651195</v>
+        <v>1117083.790549019</v>
       </c>
       <c r="J45">
-        <v>-100.6117847948722</v>
+        <v>4841146.246116863</v>
       </c>
       <c r="K45">
-        <v>-685.4090511676428</v>
+        <v>3983749.814931098</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,31 +2005,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.98489539796267</v>
+        <v>1116403.221128013</v>
       </c>
       <c r="G46">
-        <v>752.6609400915188</v>
+        <v>4841735.092676916</v>
       </c>
       <c r="H46">
-        <v>1450.382161566116</v>
+        <v>3986298.83824779</v>
       </c>
       <c r="I46">
-        <v>845.5916363672062</v>
+        <v>1117168.08011343</v>
       </c>
       <c r="J46">
-        <v>-153.8068931414794</v>
+        <v>4841097.594377984</v>
       </c>
       <c r="K46">
-        <v>-1072.163461018235</v>
+        <v>3983402.218904565</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,31 +2040,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.45545374602495</v>
+        <v>1116402.6854886</v>
       </c>
       <c r="G47">
-        <v>776.9841876904799</v>
+        <v>4841751.60549461</v>
       </c>
       <c r="H47">
-        <v>1456.400339115243</v>
+        <v>3986306.82583227</v>
       </c>
       <c r="I47">
-        <v>936.346033722901</v>
+        <v>1117254.44523082</v>
       </c>
       <c r="J47">
-        <v>-207.0020014880865</v>
+        <v>4841048.942639108</v>
       </c>
       <c r="K47">
-        <v>-1475.773082890398</v>
+        <v>3983039.474234408</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,31 +2075,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.94649670599986</v>
+        <v>1116402.170573596</v>
       </c>
       <c r="G48">
-        <v>801.3074352894411</v>
+        <v>4841768.118312303</v>
       </c>
       <c r="H48">
-        <v>1462.262428128515</v>
+        <v>3986314.606249322</v>
       </c>
       <c r="I48">
-        <v>1029.335174620965</v>
+        <v>1117342.937009771</v>
       </c>
       <c r="J48">
-        <v>-260.1971098346932</v>
+        <v>4841000.29090023</v>
       </c>
       <c r="K48">
-        <v>-1896.237916784132</v>
+        <v>3982661.580920625</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,31 +2110,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.45673677700125</v>
+        <v>1116401.675080429</v>
       </c>
       <c r="G49">
-        <v>825.6306828884022</v>
+        <v>4841784.631129996</v>
       </c>
       <c r="H49">
-        <v>1467.976321018761</v>
+        <v>3986322.189974096</v>
       </c>
       <c r="I49">
-        <v>1124.614087565203</v>
+        <v>1117433.607817368</v>
       </c>
       <c r="J49">
-        <v>-313.3922181813003</v>
+        <v>4840951.639161354</v>
       </c>
       <c r="K49">
-        <v>-2333.557962699441</v>
+        <v>3982268.538963219</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,31 +2145,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.98499695171292</v>
+        <v>1116401.197818313</v>
       </c>
       <c r="G50">
-        <v>849.9539304873634</v>
+        <v>4841801.143947689</v>
       </c>
       <c r="H50">
-        <v>1473.549326325575</v>
+        <v>3986329.5867068</v>
       </c>
       <c r="I50">
-        <v>1222.2391560857</v>
+        <v>1117526.511310186</v>
       </c>
       <c r="J50">
-        <v>-366.5873265279075</v>
+        <v>4840902.987422476</v>
       </c>
       <c r="K50">
-        <v>-2787.733220636323</v>
+        <v>3981860.348362187</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,31 +2180,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.53019881825092</v>
+        <v>1116400.737696212</v>
       </c>
       <c r="G51">
-        <v>874.2771780863245</v>
+        <v>4841817.656765383</v>
       </c>
       <c r="H51">
-        <v>1478.988224924505</v>
+        <v>3986336.805447305</v>
       </c>
       <c r="I51">
-        <v>1322.268152105099</v>
+        <v>1117621.702466045</v>
       </c>
       <c r="J51">
-        <v>-419.7824348745146</v>
+        <v>4840854.335683598</v>
       </c>
       <c r="K51">
-        <v>-3258.763690594778</v>
+        <v>3981437.009117531</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,31 +2215,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.09135219111583</v>
+        <v>1116400.293712349</v>
       </c>
       <c r="G52">
-        <v>898.6004256852858</v>
+        <v>4841834.169583075</v>
       </c>
       <c r="H52">
-        <v>1484.299319630882</v>
+        <v>3986343.854560979</v>
       </c>
       <c r="I52">
-        <v>1424.760270126487</v>
+        <v>1117719.237616542</v>
       </c>
       <c r="J52">
-        <v>-472.9775432211218</v>
+        <v>4840805.683944722</v>
       </c>
       <c r="K52">
-        <v>-3746.649372574805</v>
+        <v>3980998.52122925</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,31 +2250,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.66754604432976</v>
+        <v>1116399.864945034</v>
       </c>
       <c r="G53">
-        <v>922.923673284247</v>
+        <v>4841850.682400769</v>
       </c>
       <c r="H53">
-        <v>1489.488479108375</v>
+        <v>3986350.741836964</v>
       </c>
       <c r="I53">
-        <v>1529.77616226313</v>
+        <v>1117819.174480391</v>
       </c>
       <c r="J53">
-        <v>-526.1726515677284</v>
+        <v>4840757.032205844</v>
       </c>
       <c r="K53">
-        <v>-4251.390266576401</v>
+        <v>3980544.884697345</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,31 +2285,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.25794055783422</v>
+        <v>1116399.450544615</v>
       </c>
       <c r="G54">
-        <v>947.2469208832081</v>
+        <v>4841867.195218462</v>
       </c>
       <c r="H54">
-        <v>1494.561176849402</v>
+        <v>3986357.474539916</v>
       </c>
       <c r="I54">
-        <v>1637.37797413079</v>
+        <v>1117921.572197571</v>
       </c>
       <c r="J54">
-        <v>-579.3677599143356</v>
+        <v>4840708.380466967</v>
       </c>
       <c r="K54">
-        <v>-4772.986372599574</v>
+        <v>3980076.099521815</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2332,34 +2317,34 @@
         <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G55">
-        <v>-40.86109767821926</v>
+        <v>4841121.628615685</v>
       </c>
       <c r="H55">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I55">
-        <v>-2139.538767523529</v>
+        <v>1114859.984120187</v>
       </c>
       <c r="J55">
-        <v>2918.196815199404</v>
+        <v>4843218.776594564</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984374.388059875</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2367,34 +2352,34 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G56">
-        <v>-40.86109767821926</v>
+        <v>4841121.628615685</v>
       </c>
       <c r="H56">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I56">
-        <v>-2097.298575222898</v>
+        <v>1114889.598080172</v>
       </c>
       <c r="J56">
-        <v>2847.20936027809</v>
+        <v>4843170.125051513</v>
       </c>
       <c r="K56">
-        <v>305.8909492291428</v>
+        <v>3984678.184361939</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2402,34 +2387,34 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G57">
-        <v>-40.86109767821926</v>
+        <v>4841121.628615685</v>
       </c>
       <c r="H57">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I57">
-        <v>-2054.018257047129</v>
+        <v>1114919.941256677</v>
       </c>
       <c r="J57">
-        <v>2776.221905356776</v>
+        <v>4843121.47350846</v>
       </c>
       <c r="K57">
-        <v>596.5287735759465</v>
+        <v>3984966.83198783</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2437,34 +2422,34 @@
         <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G58">
-        <v>-40.86109767821926</v>
+        <v>4841121.628615685</v>
       </c>
       <c r="H58">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I58">
-        <v>-2009.672200853443</v>
+        <v>1114951.031605989</v>
       </c>
       <c r="J58">
-        <v>2705.234450435462</v>
+        <v>4843072.821965409</v>
       </c>
       <c r="K58">
-        <v>871.913473040413</v>
+        <v>3985240.330937548</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2472,34 +2457,34 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G59">
-        <v>-40.86109767821926</v>
+        <v>4841121.628615685</v>
       </c>
       <c r="H59">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I59">
-        <v>-1964.234163823612</v>
+        <v>1114982.887526549</v>
       </c>
       <c r="J59">
-        <v>2634.246995514148</v>
+        <v>4843024.170422358</v>
       </c>
       <c r="K59">
-        <v>1132.045047622541</v>
+        <v>3985498.681211092</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2507,34 +2492,34 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G60">
-        <v>-40.86109767821926</v>
+        <v>4841121.628615685</v>
       </c>
       <c r="H60">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I60">
-        <v>-1917.677256934149</v>
+        <v>1115015.527869846</v>
       </c>
       <c r="J60">
-        <v>2563.259540592834</v>
+        <v>4842975.518879307</v>
       </c>
       <c r="K60">
-        <v>1376.923497322332</v>
+        <v>3985741.882808464</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2542,34 +2527,34 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G61">
-        <v>-40.86109767821926</v>
+        <v>4841121.628615685</v>
       </c>
       <c r="H61">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I61">
-        <v>-1869.973929044101</v>
+        <v>1115048.971951569</v>
       </c>
       <c r="J61">
-        <v>2492.27208567152</v>
+        <v>4842926.867336255</v>
       </c>
       <c r="K61">
-        <v>1606.548822139784</v>
+        <v>3985969.935729661</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2577,34 +2562,34 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G62">
-        <v>-40.86109767821926</v>
+        <v>4841121.628615685</v>
       </c>
       <c r="H62">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I62">
-        <v>-1821.095950591018</v>
+        <v>1115083.239563036</v>
       </c>
       <c r="J62">
-        <v>2421.284630750205</v>
+        <v>4842878.215793204</v>
       </c>
       <c r="K62">
-        <v>1820.921022074899</v>
+        <v>3986182.839974687</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2612,34 +2597,34 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>133.2213280191649</v>
+        <v>1116577.904997523</v>
       </c>
       <c r="G63">
-        <v>-34.11378028731432</v>
+        <v>4841138.141424886</v>
       </c>
       <c r="H63">
-        <v>864.7600400350822</v>
+        <v>3985227.151587938</v>
       </c>
       <c r="I63">
-        <v>-1771.014396885444</v>
+        <v>1115118.35098291</v>
       </c>
       <c r="J63">
-        <v>2350.297175828892</v>
+        <v>4842829.564250153</v>
       </c>
       <c r="K63">
-        <v>2020.040097127675</v>
+        <v>3986380.595543538</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2647,34 +2632,34 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>103.395291671216</v>
+        <v>1116529.224459862</v>
       </c>
       <c r="G64">
-        <v>-27.36646289640938</v>
+        <v>4841154.654234085</v>
       </c>
       <c r="H64">
-        <v>1065.378550304644</v>
+        <v>3985426.405935877</v>
       </c>
       <c r="I64">
-        <v>-1719.699630994054</v>
+        <v>1115154.326989196</v>
       </c>
       <c r="J64">
-        <v>2279.309720907578</v>
+        <v>4842780.912707102</v>
       </c>
       <c r="K64">
-        <v>2203.906047298112</v>
+        <v>3986563.202436217</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2682,34 +2667,34 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>85.87399155229505</v>
+        <v>1116500.627086065</v>
       </c>
       <c r="G65">
-        <v>-20.61914550550445</v>
+        <v>4841171.167043286</v>
       </c>
       <c r="H65">
-        <v>1184.877195041324</v>
+        <v>3985545.092015763</v>
       </c>
       <c r="I65">
-        <v>-1667.121286201308</v>
+        <v>1115191.188871539</v>
       </c>
       <c r="J65">
-        <v>2208.322265986264</v>
+        <v>4842732.26116405</v>
       </c>
       <c r="K65">
-        <v>2372.518872586213</v>
+        <v>3986730.660652723</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2717,34 +2702,34 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>74.81326148961895</v>
+        <v>1116482.574325715</v>
       </c>
       <c r="G66">
-        <v>-13.87182811459952</v>
+        <v>4841187.679852488</v>
       </c>
       <c r="H66">
-        <v>1270.274799829994</v>
+        <v>3985629.908935372</v>
       </c>
       <c r="I66">
-        <v>-1613.24824803923</v>
+        <v>1115228.958443824</v>
       </c>
       <c r="J66">
-        <v>2137.33481106495</v>
+        <v>4842683.609620999</v>
       </c>
       <c r="K66">
-        <v>2525.878572991975</v>
+        <v>3986882.970193055</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2752,34 +2737,34 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>67.09955324204783</v>
+        <v>1116469.984403928</v>
       </c>
       <c r="G67">
-        <v>-7.124510723694579</v>
+        <v>4841204.192661687</v>
       </c>
       <c r="H67">
-        <v>1336.773868927131</v>
+        <v>3985695.955825231</v>
       </c>
       <c r="I67">
-        <v>-1558.048635874698</v>
+        <v>1115267.658057078</v>
       </c>
       <c r="J67">
-        <v>2066.347356143636</v>
+        <v>4842634.958077947</v>
       </c>
       <c r="K67">
-        <v>2663.9851485154</v>
+        <v>3987020.131057214</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2787,34 +2772,34 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>61.3448958901541</v>
+        <v>1116460.591945249</v>
       </c>
       <c r="G68">
-        <v>-0.3771933327896472</v>
+        <v>4841220.705470888</v>
       </c>
       <c r="H68">
-        <v>1391.241764655658</v>
+        <v>3985750.05335109</v>
       </c>
       <c r="I68">
-        <v>-1501.489784043326</v>
+        <v>1115307.310612705</v>
       </c>
       <c r="J68">
-        <v>1995.359901222322</v>
+        <v>4842586.306534896</v>
       </c>
       <c r="K68">
-        <v>2786.838599156486</v>
+        <v>3987142.1432452</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2822,34 +2807,34 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>56.8455574550478</v>
+        <v>1116453.24835418</v>
       </c>
       <c r="G69">
-        <v>6.37012405811529</v>
+        <v>4841237.218280087</v>
       </c>
       <c r="H69">
-        <v>1437.372096374038</v>
+        <v>3985795.870006564</v>
       </c>
       <c r="I69">
-        <v>-1443.538222518797</v>
+        <v>1115347.939576035</v>
       </c>
       <c r="J69">
-        <v>1924.372446301008</v>
+        <v>4842537.654991844</v>
       </c>
       <c r="K69">
-        <v>2894.438924915235</v>
+        <v>3987249.006757013</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2857,34 +2842,34 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>53.20526505347308</v>
+        <v>1116447.306854302</v>
       </c>
       <c r="G70">
-        <v>13.11744144902023</v>
+        <v>4841253.731089288</v>
       </c>
       <c r="H70">
-        <v>1477.381757554243</v>
+        <v>3985835.607610731</v>
       </c>
       <c r="I70">
-        <v>-1384.159657106184</v>
+        <v>1115389.56899021</v>
       </c>
       <c r="J70">
-        <v>1853.384991379694</v>
+        <v>4842489.003448793</v>
       </c>
       <c r="K70">
-        <v>2986.786125791644</v>
+        <v>3987340.721592653</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2892,34 +2877,34 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>50.18252525131788</v>
+        <v>1116442.373292327</v>
       </c>
       <c r="G71">
-        <v>19.86475883992516</v>
+        <v>4841270.24389849</v>
       </c>
       <c r="H71">
-        <v>1512.706329272416</v>
+        <v>3985870.691983027</v>
       </c>
       <c r="I71">
-        <v>-1323.318949147565</v>
+        <v>1115432.22349041</v>
       </c>
       <c r="J71">
-        <v>1782.39753645838</v>
+        <v>4842440.351905742</v>
       </c>
       <c r="K71">
-        <v>3063.880201785717</v>
+        <v>3987417.287752119</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2927,34 +2912,34 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>47.62098070190277</v>
+        <v>1116438.192469758</v>
       </c>
       <c r="G72">
-        <v>26.6120762308301</v>
+        <v>4841286.756707689</v>
       </c>
       <c r="H72">
-        <v>1544.32892928414</v>
+        <v>3985902.099556222</v>
       </c>
       <c r="I72">
-        <v>-1260.980094727889</v>
+        <v>1115475.928318436</v>
       </c>
       <c r="J72">
-        <v>1711.410081537066</v>
+        <v>4842391.700362691</v>
       </c>
       <c r="K72">
-        <v>3125.721152897452</v>
+        <v>3987478.705235412</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2962,34 +2947,34 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>45.41445997780617</v>
+        <v>1116434.591098997</v>
       </c>
       <c r="G73">
-        <v>33.35939362173504</v>
+        <v>4841303.26951689</v>
       </c>
       <c r="H73">
-        <v>1572.952404675727</v>
+        <v>3985930.528398192</v>
       </c>
       <c r="I73">
-        <v>-1197.106203368823</v>
+        <v>1115520.709337644</v>
       </c>
       <c r="J73">
-        <v>1640.422626615752</v>
+        <v>4842343.048819638</v>
       </c>
       <c r="K73">
-        <v>3172.308979126848</v>
+        <v>3987524.974042532</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2997,34 +2982,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>43.48805337091706</v>
+        <v>1116431.446916234</v>
       </c>
       <c r="G74">
-        <v>40.10671101263996</v>
+        <v>4841319.78232609</v>
       </c>
       <c r="H74">
-        <v>1599.096681156005</v>
+        <v>3985956.494899267</v>
       </c>
       <c r="I74">
-        <v>-1131.659476197944</v>
+        <v>1115566.593048253</v>
       </c>
       <c r="J74">
-        <v>1569.435171694438</v>
+        <v>4842294.397276587</v>
       </c>
       <c r="K74">
-        <v>3203.643680473906</v>
+        <v>3987556.09417348</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3032,34 +3017,34 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>41.78721841060031</v>
+        <v>1116428.670900026</v>
       </c>
       <c r="G75">
-        <v>46.85402840354491</v>
+        <v>4841336.29513529</v>
       </c>
       <c r="H75">
-        <v>1623.15720230675</v>
+        <v>3985980.391814095</v>
       </c>
       <c r="I75">
-        <v>-1064.601183580365</v>
+        <v>1115613.606603023</v>
       </c>
       <c r="J75">
-        <v>1498.447716773124</v>
+        <v>4842245.745733536</v>
       </c>
       <c r="K75">
-        <v>3219.725256938626</v>
+        <v>3987572.065628254</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3067,34 +3052,34 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>40.27118440097193</v>
+        <v>1116426.196506518</v>
       </c>
       <c r="G76">
-        <v>53.60134579444984</v>
+        <v>4841352.807944491</v>
       </c>
       <c r="H76">
-        <v>1645.441747671275</v>
+        <v>3986002.524829387</v>
       </c>
       <c r="I76">
-        <v>-995.8916421995772</v>
+        <v>1115661.777823327</v>
       </c>
       <c r="J76">
-        <v>1427.46026185181</v>
+        <v>4842197.094190485</v>
       </c>
       <c r="K76">
-        <v>3220.553708521009</v>
+        <v>3987572.888406855</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3102,34 +3087,34 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>38.90878841758676</v>
+        <v>1116423.972873173</v>
       </c>
       <c r="G77">
-        <v>60.34866318535478</v>
+        <v>4841369.320753692</v>
       </c>
       <c r="H77">
-        <v>1666.194570991515</v>
+        <v>3986023.136538013</v>
       </c>
       <c r="I77">
-        <v>-925.4901915739065</v>
+        <v>1115711.135215615</v>
       </c>
       <c r="J77">
-        <v>1356.472806930496</v>
+        <v>4842148.442647433</v>
       </c>
       <c r="K77">
-        <v>3206.129035221053</v>
+        <v>3987558.562509282</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3137,34 +3122,34 @@
         <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>37.67575134026454</v>
+        <v>1116421.960372846</v>
       </c>
       <c r="G78">
-        <v>67.09598057625972</v>
+        <v>4841385.833562892</v>
       </c>
       <c r="H78">
-        <v>1685.61276279402</v>
+        <v>3986042.422690325</v>
       </c>
       <c r="I78">
-        <v>-853.355169994725</v>
+        <v>1115761.70798828</v>
       </c>
       <c r="J78">
-        <v>1285.485352009182</v>
+        <v>4842099.791104381</v>
       </c>
       <c r="K78">
-        <v>3176.45123703876</v>
+        <v>3987529.087935536</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3172,34 +3157,34 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>36.55284084683935</v>
+        <v>1116420.127615522</v>
       </c>
       <c r="G79">
-        <v>73.84329796716466</v>
+        <v>4841402.346372092</v>
       </c>
       <c r="H79">
-        <v>1703.857661975499</v>
+        <v>3986060.543528152</v>
       </c>
       <c r="I79">
-        <v>-779.4438898721594</v>
+        <v>1115813.526068946</v>
       </c>
       <c r="J79">
-        <v>1214.497897087868</v>
+        <v>4842051.13956133</v>
       </c>
       <c r="K79">
-        <v>3131.520313974128</v>
+        <v>3987484.464685617</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3207,34 +3192,34 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>35.52459946301148</v>
+        <v>1116418.449372298</v>
       </c>
       <c r="G80">
-        <v>80.59061535806958</v>
+        <v>4841418.859181292</v>
       </c>
       <c r="H80">
-        <v>1721.063011953459</v>
+        <v>3986077.631885484</v>
       </c>
       <c r="I80">
-        <v>-703.7126124737067</v>
+        <v>1115866.620122177</v>
       </c>
       <c r="J80">
-        <v>1143.510442166554</v>
+        <v>4842002.488018278</v>
       </c>
       <c r="K80">
-        <v>3071.336266027158</v>
+        <v>3987424.692759525</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3242,34 +3227,34 @@
         <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>34.57844331476252</v>
+        <v>1116416.905104415</v>
       </c>
       <c r="G81">
-        <v>87.33793274897452</v>
+        <v>4841435.371990493</v>
       </c>
       <c r="H81">
-        <v>1737.340915915071</v>
+        <v>3986093.799103231</v>
       </c>
       <c r="I81">
-        <v>-626.1165220408151</v>
+        <v>1115921.021567622</v>
       </c>
       <c r="J81">
-        <v>1072.52298724524</v>
+        <v>4841953.836475227</v>
       </c>
       <c r="K81">
-        <v>2995.899093197851</v>
+        <v>3987349.77215726</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3277,34 +3262,34 @@
         <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>33.70401042449259</v>
+        <v>1116415.477899581</v>
       </c>
       <c r="G82">
-        <v>94.08525013987946</v>
+        <v>4841451.884799694</v>
       </c>
       <c r="H82">
-        <v>1752.786267501931</v>
+        <v>3986109.139429779</v>
       </c>
       <c r="I82">
-        <v>-546.6096992681067</v>
+        <v>1115976.762598614</v>
       </c>
       <c r="J82">
-        <v>1001.535532323926</v>
+        <v>4841905.184932176</v>
       </c>
       <c r="K82">
-        <v>2905.208795486205</v>
+        <v>3987259.702878822</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3312,34 +3297,34 @@
         <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>32.89268086299067</v>
+        <v>1116414.153688787</v>
       </c>
       <c r="G83">
-        <v>100.8325675307844</v>
+        <v>4841468.397608894</v>
       </c>
       <c r="H83">
-        <v>1767.480102558561</v>
+        <v>3986123.733349946</v>
       </c>
       <c r="I83">
-        <v>-465.1450941295566</v>
+        <v>1116033.876201212</v>
       </c>
       <c r="J83">
-        <v>930.5480774026114</v>
+        <v>4841856.533389124</v>
       </c>
       <c r="K83">
-        <v>2799.265372892221</v>
+        <v>3987154.48492421</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3347,34 +3332,34 @@
         <v>72</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>32.13721768251563</v>
+        <v>1116412.920660255</v>
       </c>
       <c r="G84">
-        <v>107.5798849216893</v>
+        <v>4841484.910418094</v>
       </c>
       <c r="H84">
-        <v>1781.49217264026</v>
+        <v>3986137.650140992</v>
       </c>
       <c r="I84">
-        <v>-381.6744980355323</v>
+        <v>1116092.396173731</v>
       </c>
       <c r="J84">
-        <v>859.5606224812976</v>
+        <v>4841807.881846072</v>
       </c>
       <c r="K84">
-        <v>2678.0688254159</v>
+        <v>3987034.118293426</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3382,34 +3367,34 @@
         <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>31.43149429468316</v>
+        <v>1116411.76881448</v>
       </c>
       <c r="G85">
-        <v>114.3272023125943</v>
+        <v>4841501.423227295</v>
       </c>
       <c r="H85">
-        <v>1794.882947530535</v>
+        <v>3986150.94986152</v>
       </c>
       <c r="I85">
-        <v>-296.148515304233</v>
+        <v>1116152.357146736</v>
       </c>
       <c r="J85">
-        <v>788.5731675599834</v>
+        <v>4841759.230303021</v>
       </c>
       <c r="K85">
-        <v>2541.61915305724</v>
+        <v>3986898.602986468</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3417,34 +3402,34 @@
         <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>30.7702847419699</v>
+        <v>1116410.68962192</v>
       </c>
       <c r="G86">
-        <v>121.0745197034992</v>
+        <v>4841517.936036495</v>
       </c>
       <c r="H86">
-        <v>1807.705192354976</v>
+        <v>3986163.684917862</v>
       </c>
       <c r="I86">
-        <v>-208.5165339306363</v>
+        <v>1116213.794603539</v>
       </c>
       <c r="J86">
-        <v>717.5857126386696</v>
+        <v>4841710.57875997</v>
       </c>
       <c r="K86">
-        <v>2389.916355816243</v>
+        <v>3986747.939003337</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3452,34 +3437,34 @@
         <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>30.14910041368595</v>
+        <v>1116409.675756492</v>
       </c>
       <c r="G87">
-        <v>127.8218370944041</v>
+        <v>4841534.448845696</v>
       </c>
       <c r="H87">
-        <v>1820.00522333062</v>
+        <v>3986175.901311296</v>
       </c>
       <c r="I87">
-        <v>-118.7266956356593</v>
+        <v>1116276.744901193</v>
       </c>
       <c r="J87">
-        <v>646.5982577173555</v>
+        <v>4841661.927216919</v>
       </c>
       <c r="K87">
-        <v>2222.960433692906</v>
+        <v>3986582.126344033</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3487,34 +3472,34 @@
         <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>29.56406152701328</v>
+        <v>1116408.720885814</v>
       </c>
       <c r="G88">
-        <v>134.5691544853091</v>
+        <v>4841550.961654896</v>
       </c>
       <c r="H88">
-        <v>1831.823917663759</v>
+        <v>3986187.639641073</v>
       </c>
       <c r="I88">
-        <v>-26.72586517780545</v>
+        <v>1116341.245292014</v>
       </c>
       <c r="J88">
-        <v>575.6108027960413</v>
+        <v>4841613.275673866</v>
       </c>
       <c r="K88">
-        <v>2040.751386687233</v>
+        <v>3986401.165008555</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3522,34 +3507,34 @@
         <v>72</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>29.01179495495942</v>
+        <v>1116407.819504439</v>
       </c>
       <c r="G89">
-        <v>141.316471876214</v>
+        <v>4841567.474464096</v>
       </c>
       <c r="H89">
-        <v>1843.197533185913</v>
+        <v>3986198.935918478</v>
       </c>
       <c r="I89">
-        <v>67.54040109086131</v>
+        <v>1116407.33394562</v>
       </c>
       <c r="J89">
-        <v>504.6233478747275</v>
+        <v>4841564.624130815</v>
       </c>
       <c r="K89">
-        <v>1843.289214799222</v>
+        <v>3986205.054996905</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3557,34 +3542,34 @@
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>28.48935224972037</v>
+        <v>1116406.96680006</v>
       </c>
       <c r="G90">
-        <v>148.0637892671189</v>
+        <v>4841583.987273297</v>
       </c>
       <c r="H90">
-        <v>1854.158379184373</v>
+        <v>3986209.822233102</v>
       </c>
       <c r="I90">
-        <v>164.1278874430191</v>
+        <v>1116475.04997152</v>
       </c>
       <c r="J90">
-        <v>433.6358929534134</v>
+        <v>4841515.972587764</v>
       </c>
       <c r="K90">
-        <v>1630.573918028872</v>
+        <v>3985993.796309081</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3592,34 +3577,34 @@
         <v>72</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>27.99414330911905</v>
+        <v>1116406.158545246</v>
       </c>
       <c r="G91">
-        <v>154.8111066580239</v>
+        <v>4841600.500082497</v>
       </c>
       <c r="H91">
-        <v>1864.735369713471</v>
+        <v>3986220.327302391</v>
       </c>
       <c r="I91">
-        <v>263.0937517877415</v>
+        <v>1116544.433442261</v>
       </c>
       <c r="J91">
-        <v>362.6484380320996</v>
+        <v>4841467.321044713</v>
       </c>
       <c r="K91">
-        <v>1402.605496376185</v>
+        <v>3985767.388945085</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3627,34 +3612,34 @@
         <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>27.52388227774684</v>
+        <v>1116405.391009138</v>
       </c>
       <c r="G92">
-        <v>161.5584240489288</v>
+        <v>4841617.012891698</v>
       </c>
       <c r="H92">
-        <v>1874.954483257659</v>
+        <v>3986230.476928181</v>
       </c>
       <c r="I92">
-        <v>364.496559495026</v>
+        <v>1116615.525417137</v>
       </c>
       <c r="J92">
-        <v>291.6609831107854</v>
+        <v>4841418.669501661</v>
       </c>
       <c r="K92">
-        <v>1159.383949841158</v>
+        <v>3985525.832904914</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3662,34 +3647,34 @@
         <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>27.07654310326091</v>
+        <v>1116404.660884918</v>
       </c>
       <c r="G93">
-        <v>168.3057414398338</v>
+        <v>4841633.525700898</v>
       </c>
       <c r="H93">
-        <v>1884.839147145294</v>
+        <v>3986240.2943785</v>
       </c>
       <c r="I93">
-        <v>468.3963180532307</v>
+        <v>1116688.367966491</v>
       </c>
       <c r="J93">
-        <v>220.6735281894713</v>
+        <v>4841370.01795861</v>
       </c>
       <c r="K93">
-        <v>900.9092784237948</v>
+        <v>3985269.128188571</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3697,34 +3682,34 @@
         <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>26.6503227759339</v>
+        <v>1116403.965229804</v>
       </c>
       <c r="G94">
-        <v>175.0530588307387</v>
+        <v>4841650.038510098</v>
       </c>
       <c r="H94">
-        <v>1894.410561028127</v>
+        <v>3986249.800708845</v>
       </c>
       <c r="I94">
-        <v>574.8545125799045</v>
+        <v>1116763.004196608</v>
       </c>
       <c r="J94">
-        <v>149.6860732681575</v>
+        <v>4841321.366415558</v>
       </c>
       <c r="K94">
-        <v>627.1814821240937</v>
+        <v>3984997.274796055</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3732,34 +3717,34 @@
         <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>26.24361072996014</v>
+        <v>1116403.301415114</v>
       </c>
       <c r="G95">
-        <v>181.8003762216436</v>
+        <v>4841666.551319299</v>
       </c>
       <c r="H95">
-        <v>1903.687970661804</v>
+        <v>3986259.015034107</v>
       </c>
       <c r="I95">
-        <v>683.9341422070569</v>
+        <v>1116839.478275229</v>
       </c>
       <c r="J95">
-        <v>78.69861834684336</v>
+        <v>4841272.714872507</v>
       </c>
       <c r="K95">
-        <v>338.2005609420536</v>
+        <v>3984710.272727366</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3767,34 +3752,34 @@
         <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>25.85496322230597</v>
+        <v>1116402.667084444</v>
       </c>
       <c r="G96">
-        <v>188.5476936125486</v>
+        <v>4841683.064128499</v>
       </c>
       <c r="H96">
-        <v>1912.688900877727</v>
+        <v>3986267.954759951</v>
       </c>
       <c r="I96">
-        <v>795.6997573623577</v>
+        <v>1116917.83545768</v>
       </c>
       <c r="J96">
-        <v>7.711163425529219</v>
+        <v>4841224.063329455</v>
       </c>
       <c r="K96">
-        <v>33.96651487767579</v>
+        <v>3984408.121982503</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3802,34 +3787,34 @@
         <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>25.48308175989422</v>
+        <v>1116402.060118459</v>
       </c>
       <c r="G97">
-        <v>195.2950110034535</v>
+        <v>4841699.5769377</v>
       </c>
       <c r="H97">
-        <v>1921.429354834778</v>
+        <v>3986276.635780717</v>
       </c>
       <c r="I97">
-        <v>910.2174979683764</v>
+        <v>1116998.122113662</v>
       </c>
       <c r="J97">
-        <v>-63.27629149578459</v>
+        <v>4841175.411786404</v>
       </c>
       <c r="K97">
-        <v>-285.5206560690391</v>
+        <v>3984090.822561467</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3837,34 +3822,34 @@
         <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>25.12679484043214</v>
+        <v>1116401.478605093</v>
       </c>
       <c r="G98">
-        <v>202.0423283943584</v>
+        <v>4841716.0897469</v>
       </c>
       <c r="H98">
-        <v>1929.923985243271</v>
+        <v>3986285.072649482</v>
       </c>
       <c r="I98">
-        <v>1027.555132582429</v>
+        <v>1117080.385754685</v>
       </c>
       <c r="J98">
-        <v>-134.2637464170987</v>
+        <v>4841126.760243353</v>
       </c>
       <c r="K98">
-        <v>-620.2609518980929</v>
+        <v>3983758.374464259</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,34 +3857,34 @@
         <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>24.78504242182377</v>
+        <v>1116400.920814198</v>
       </c>
       <c r="G99">
-        <v>208.7896457852634</v>
+        <v>4841732.6025561</v>
       </c>
       <c r="H99">
-        <v>1938.186242162984</v>
+        <v>3986293.278724848</v>
       </c>
       <c r="I99">
-        <v>1147.782098500209</v>
+        <v>1117164.675062187</v>
       </c>
       <c r="J99">
-        <v>-205.2512013384129</v>
+        <v>4841078.108700301</v>
       </c>
       <c r="K99">
-        <v>-970.2543726094856</v>
+        <v>3983410.777690876</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,34 +3892,34 @@
         <v>72</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>24.45686265112403</v>
+        <v>1116400.385175889</v>
       </c>
       <c r="G100">
-        <v>215.5369631761683</v>
+        <v>4841749.115365301</v>
       </c>
       <c r="H100">
-        <v>1946.228501119077</v>
+        <v>3986301.266298189</v>
       </c>
       <c r="I100">
-        <v>1270.969542846934</v>
+        <v>1117251.039916342</v>
       </c>
       <c r="J100">
-        <v>-276.238656259727</v>
+        <v>4841029.45715725</v>
       </c>
       <c r="K100">
-        <v>-1335.500918203216</v>
+        <v>3983048.032241321</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3942,34 +3927,34 @@
         <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>24.14138047460818</v>
+        <v>1116399.870261946</v>
       </c>
       <c r="G101">
-        <v>222.2842805670732</v>
+        <v>4841765.628174501</v>
       </c>
       <c r="H101">
-        <v>1954.06217459972</v>
+        <v>3986309.04670439</v>
       </c>
       <c r="I101">
-        <v>1397.190364680326</v>
+        <v>1117339.531425576</v>
       </c>
       <c r="J101">
-        <v>-347.2261111810405</v>
+        <v>4840980.805614199</v>
       </c>
       <c r="K101">
-        <v>-1716.000588679281</v>
+        <v>3982670.138115592</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3977,34 +3962,34 @@
         <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>23.83779782181078</v>
+        <v>1116399.3747698</v>
       </c>
       <c r="G102">
-        <v>229.0315979579782</v>
+        <v>4841782.140983702</v>
       </c>
       <c r="H102">
-        <v>1961.697809456889</v>
+        <v>3986316.630418587</v>
       </c>
       <c r="I102">
-        <v>1526.51925813034</v>
+        <v>1117430.201956815</v>
       </c>
       <c r="J102">
-        <v>-418.2135661023546</v>
+        <v>4840932.154071148</v>
       </c>
       <c r="K102">
-        <v>-2111.753384037687</v>
+        <v>3982277.095313691</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,34 +3997,34 @@
         <v>72</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>23.5453851128249</v>
+        <v>1116398.897508667</v>
       </c>
       <c r="G103">
-        <v>235.7789153488831</v>
+        <v>4841798.653792902</v>
       </c>
       <c r="H103">
-        <v>1969.14517229642</v>
+        <v>3986324.027140976</v>
       </c>
       <c r="I103">
-        <v>1659.032756601159</v>
+        <v>1117523.105166469</v>
       </c>
       <c r="J103">
-        <v>-489.2010210236688</v>
+        <v>4840883.502528096</v>
       </c>
       <c r="K103">
-        <v>-2522.759304278431</v>
+        <v>3981868.903835616</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4047,34 +4032,34 @@
         <v>72</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>23.263473883121</v>
+        <v>1116398.437387514</v>
       </c>
       <c r="G104">
-        <v>242.526232739788</v>
+        <v>4841815.166602103</v>
       </c>
       <c r="H104">
-        <v>1976.413324591939</v>
+        <v>3986331.245871413</v>
       </c>
       <c r="I104">
-        <v>1794.809278061638</v>
+        <v>1117618.296032192</v>
       </c>
       <c r="J104">
-        <v>-560.1884759449829</v>
+        <v>4840834.850985044</v>
       </c>
       <c r="K104">
-        <v>-2949.018349401513</v>
+        <v>3981445.563681368</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4082,34 +4067,34 @@
         <v>72</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>22.99145035618758</v>
+        <v>1116397.993404566</v>
       </c>
       <c r="G105">
-        <v>249.273550130693</v>
+        <v>4841831.679411303</v>
       </c>
       <c r="H105">
-        <v>1983.510688971827</v>
+        <v>3986338.294975255</v>
       </c>
       <c r="I105">
-        <v>1933.929171450974</v>
+        <v>1117715.83088541</v>
       </c>
       <c r="J105">
-        <v>-631.175930866297</v>
+        <v>4840786.199441993</v>
       </c>
       <c r="K105">
-        <v>-3390.530519406933</v>
+        <v>3981007.074850947</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4117,34 +4102,34 @@
         <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>22.72874982334443</v>
+        <v>1116397.564638134</v>
       </c>
       <c r="G106">
-        <v>256.0208675215979</v>
+        <v>4841848.192220503</v>
       </c>
       <c r="H106">
-        <v>1990.445107895462</v>
+        <v>3986345.182241635</v>
       </c>
       <c r="I106">
-        <v>2076.474764227064</v>
+        <v>1117815.767444657</v>
       </c>
       <c r="J106">
-        <v>-702.1633857876105</v>
+        <v>4840737.547898942</v>
       </c>
       <c r="K106">
-        <v>-3847.295814294688</v>
+        <v>3980553.437344353</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4152,1889 +4137,34 @@
         <v>72</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>22.4748517136217</v>
+        <v>1116397.150238569</v>
       </c>
       <c r="G107">
-        <v>262.7681849125028</v>
+        <v>4841864.705029705</v>
       </c>
       <c r="H107">
-        <v>1997.223895743827</v>
+        <v>3986351.914935197</v>
       </c>
       <c r="I107">
-        <v>2222.530411085727</v>
+        <v>1117918.164849736</v>
       </c>
       <c r="J107">
-        <v>-773.1508407089246</v>
+        <v>4840688.89635589</v>
       </c>
       <c r="K107">
-        <v>-4319.314234064784</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>72</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G108">
-        <v>-61.0529816065674</v>
-      </c>
-      <c r="H108">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I108">
-        <v>-1490.810025625346</v>
-      </c>
-      <c r="J108">
-        <v>2352.792193138299</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>72</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" t="s">
-        <v>19</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G109">
-        <v>-61.0529816065674</v>
-      </c>
-      <c r="H109">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I109">
-        <v>-1461.377466084014</v>
-      </c>
-      <c r="J109">
-        <v>2295.55865464641</v>
-      </c>
-      <c r="K109">
-        <v>399.6190540632178</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>72</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G110">
-        <v>-61.0529816065674</v>
-      </c>
-      <c r="H110">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I110">
-        <v>-1431.220156841436</v>
-      </c>
-      <c r="J110">
-        <v>2238.32511615452</v>
-      </c>
-      <c r="K110">
-        <v>779.3112703028606</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>72</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G111">
-        <v>-61.0529816065674</v>
-      </c>
-      <c r="H111">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I111">
-        <v>-1400.320251602975</v>
-      </c>
-      <c r="J111">
-        <v>2181.091577662631</v>
-      </c>
-      <c r="K111">
-        <v>1139.076648718931</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>72</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G112">
-        <v>-61.0529816065674</v>
-      </c>
-      <c r="H112">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I112">
-        <v>-1368.659464625408</v>
-      </c>
-      <c r="J112">
-        <v>2123.858039170741</v>
-      </c>
-      <c r="K112">
-        <v>1478.915189311427</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>72</v>
-      </c>
-      <c r="B113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G113">
-        <v>-61.0529816065674</v>
-      </c>
-      <c r="H113">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I113">
-        <v>-1336.219059895909</v>
-      </c>
-      <c r="J113">
-        <v>2066.624500678851</v>
-      </c>
-      <c r="K113">
-        <v>1798.826892080352</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>72</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G114">
-        <v>-61.0529816065674</v>
-      </c>
-      <c r="H114">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I114">
-        <v>-1302.97984004457</v>
-      </c>
-      <c r="J114">
-        <v>2009.390962186962</v>
-      </c>
-      <c r="K114">
-        <v>2098.811757025702</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>72</v>
-      </c>
-      <c r="B115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G115">
-        <v>-61.0529816065674</v>
-      </c>
-      <c r="H115">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I115">
-        <v>-1268.922134983914</v>
-      </c>
-      <c r="J115">
-        <v>1952.157423695072</v>
-      </c>
-      <c r="K115">
-        <v>2378.86978414748</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>72</v>
-      </c>
-      <c r="B116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" t="s">
-        <v>19</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>167.4016343097596</v>
-      </c>
-      <c r="G116">
-        <v>-50.97141581495198</v>
-      </c>
-      <c r="H116">
-        <v>869.4456753879882</v>
-      </c>
-      <c r="I116">
-        <v>-1234.025790268654</v>
-      </c>
-      <c r="J116">
-        <v>1894.923885203183</v>
-      </c>
-      <c r="K116">
-        <v>2639.000973445683</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>72</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>129.923196706205</v>
-      </c>
-      <c r="G117">
-        <v>-40.88985002333656</v>
-      </c>
-      <c r="H117">
-        <v>1071.151221529523</v>
-      </c>
-      <c r="I117">
-        <v>-1198.270155168829</v>
-      </c>
-      <c r="J117">
-        <v>1837.690346711293</v>
-      </c>
-      <c r="K117">
-        <v>2879.205324920312</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>72</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>107.9064947355026</v>
-      </c>
-      <c r="G118">
-        <v>-30.80828423172116</v>
-      </c>
-      <c r="H118">
-        <v>1191.297360424674</v>
-      </c>
-      <c r="I118">
-        <v>-1161.634070449252</v>
-      </c>
-      <c r="J118">
-        <v>1780.456808219404</v>
-      </c>
-      <c r="K118">
-        <v>3099.482838571369</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>72</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" t="s">
-        <v>19</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>94.00793722461583</v>
-      </c>
-      <c r="G119">
-        <v>-20.72671844010573</v>
-      </c>
-      <c r="H119">
-        <v>1277.157685525947</v>
-      </c>
-      <c r="I119">
-        <v>-1124.095855848034</v>
-      </c>
-      <c r="J119">
-        <v>1723.223269727514</v>
-      </c>
-      <c r="K119">
-        <v>3299.833514398853</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>72</v>
-      </c>
-      <c r="B120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>84.31513963408052</v>
-      </c>
-      <c r="G120">
-        <v>-10.64515264849032</v>
-      </c>
-      <c r="H120">
-        <v>1344.017074682605</v>
-      </c>
-      <c r="I120">
-        <v>-1085.633297246786</v>
-      </c>
-      <c r="J120">
-        <v>1665.989731235625</v>
-      </c>
-      <c r="K120">
-        <v>3480.257352402764</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>72</v>
-      </c>
-      <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>77.08402236537185</v>
-      </c>
-      <c r="G121">
-        <v>-0.5635868568749078</v>
-      </c>
-      <c r="H121">
-        <v>1398.780100488851</v>
-      </c>
-      <c r="I121">
-        <v>-1046.223633524888</v>
-      </c>
-      <c r="J121">
-        <v>1608.756192743735</v>
-      </c>
-      <c r="K121">
-        <v>3640.7543525831</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>72</v>
-      </c>
-      <c r="B122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>71.43029845683104</v>
-      </c>
-      <c r="G122">
-        <v>9.51797893474051</v>
-      </c>
-      <c r="H122">
-        <v>1445.160385839608</v>
-      </c>
-      <c r="I122">
-        <v>-1005.843543090063</v>
-      </c>
-      <c r="J122">
-        <v>1551.522654251846</v>
-      </c>
-      <c r="K122">
-        <v>3781.324514939864</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>72</v>
-      </c>
-      <c r="B123" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>66.85602415368537</v>
-      </c>
-      <c r="G123">
-        <v>19.59954472635593</v>
-      </c>
-      <c r="H123">
-        <v>1485.386836272559</v>
-      </c>
-      <c r="I123">
-        <v>-964.469130077283</v>
-      </c>
-      <c r="J123">
-        <v>1494.289115759956</v>
-      </c>
-      <c r="K123">
-        <v>3901.967839473053</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>72</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>63.05774657683111</v>
-      </c>
-      <c r="G124">
-        <v>29.68111051797134</v>
-      </c>
-      <c r="H124">
-        <v>1520.902811448808</v>
-      </c>
-      <c r="I124">
-        <v>-922.0759102078254</v>
-      </c>
-      <c r="J124">
-        <v>1437.055577268067</v>
-      </c>
-      <c r="K124">
-        <v>4002.684326182671</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>72</v>
-      </c>
-      <c r="B125" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>59.83899211532582</v>
-      </c>
-      <c r="G125">
-        <v>39.76267630958677</v>
-      </c>
-      <c r="H125">
-        <v>1552.696756071414</v>
-      </c>
-      <c r="I125">
-        <v>-878.6387963001292</v>
-      </c>
-      <c r="J125">
-        <v>1379.822038776177</v>
-      </c>
-      <c r="K125">
-        <v>4083.473975068714</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>72</v>
-      </c>
-      <c r="B126" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>57.0663491696033</v>
-      </c>
-      <c r="G126">
-        <v>49.84424210120218</v>
-      </c>
-      <c r="H126">
-        <v>1581.475325549231</v>
-      </c>
-      <c r="I126">
-        <v>-834.132083423868</v>
-      </c>
-      <c r="J126">
-        <v>1322.588500284287</v>
-      </c>
-      <c r="K126">
-        <v>4144.336786131184</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>72</v>
-      </c>
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>54.64568861071768</v>
-      </c>
-      <c r="G127">
-        <v>59.92580789281759</v>
-      </c>
-      <c r="H127">
-        <v>1607.761262768305</v>
-      </c>
-      <c r="I127">
-        <v>-788.5294336884542</v>
-      </c>
-      <c r="J127">
-        <v>1265.354961792398</v>
-      </c>
-      <c r="K127">
-        <v>4185.27275937008</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>72</v>
-      </c>
-      <c r="B128" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>52.5084741250068</v>
-      </c>
-      <c r="G128">
-        <v>70.00737368443302</v>
-      </c>
-      <c r="H128">
-        <v>1631.952153990855</v>
-      </c>
-      <c r="I128">
-        <v>-741.8038606569741</v>
-      </c>
-      <c r="J128">
-        <v>1208.121423300508</v>
-      </c>
-      <c r="K128">
-        <v>4206.281894785404</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>72</v>
-      </c>
-      <c r="B129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>50.60347456784536</v>
-      </c>
-      <c r="G129">
-        <v>80.08893947604842</v>
-      </c>
-      <c r="H129">
-        <v>1654.35744643983</v>
-      </c>
-      <c r="I129">
-        <v>-693.9277133763327</v>
-      </c>
-      <c r="J129">
-        <v>1150.887884808619</v>
-      </c>
-      <c r="K129">
-        <v>4207.364192377154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>72</v>
-      </c>
-      <c r="B130" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>48.89153161106205</v>
-      </c>
-      <c r="G130">
-        <v>90.17050526766386</v>
-      </c>
-      <c r="H130">
-        <v>1675.222717327163</v>
-      </c>
-      <c r="I130">
-        <v>-644.8726600141536</v>
-      </c>
-      <c r="J130">
-        <v>1093.654346316729</v>
-      </c>
-      <c r="K130">
-        <v>4188.51965214533</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>72</v>
-      </c>
-      <c r="B131" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>47.34213689343413</v>
-      </c>
-      <c r="G131">
-        <v>100.2520710592793</v>
-      </c>
-      <c r="H131">
-        <v>1694.746125099171</v>
-      </c>
-      <c r="I131">
-        <v>-594.6096710927518</v>
-      </c>
-      <c r="J131">
-        <v>1036.42080782484</v>
-      </c>
-      <c r="K131">
-        <v>4149.748274089934</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>72</v>
-      </c>
-      <c r="B132" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>45.93112369773987</v>
-      </c>
-      <c r="G132">
-        <v>110.3336368508947</v>
-      </c>
-      <c r="H132">
-        <v>1713.089882854887</v>
-      </c>
-      <c r="I132">
-        <v>-543.1090023102628</v>
-      </c>
-      <c r="J132">
-        <v>979.1872693329502</v>
-      </c>
-      <c r="K132">
-        <v>4091.050058210963</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>72</v>
-      </c>
-      <c r="B133" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>44.63906865912809</v>
-      </c>
-      <c r="G133">
-        <v>120.4152026425101</v>
-      </c>
-      <c r="H133">
-        <v>1730.388458690175</v>
-      </c>
-      <c r="I133">
-        <v>-490.3401769387516</v>
-      </c>
-      <c r="J133">
-        <v>921.9537308410606</v>
-      </c>
-      <c r="K133">
-        <v>4012.42500450842</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>72</v>
-      </c>
-      <c r="B134" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>43.45015928640125</v>
-      </c>
-      <c r="G134">
-        <v>130.4967684341255</v>
-      </c>
-      <c r="H134">
-        <v>1746.754563214652</v>
-      </c>
-      <c r="I134">
-        <v>-436.2719677888963</v>
-      </c>
-      <c r="J134">
-        <v>864.7201923491712</v>
-      </c>
-      <c r="K134">
-        <v>3913.873112982303</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>72</v>
-      </c>
-      <c r="B135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>42.3513750519104</v>
-      </c>
-      <c r="G135">
-        <v>140.5783342257409</v>
-      </c>
-      <c r="H135">
-        <v>1762.283604243765</v>
-      </c>
-      <c r="I135">
-        <v>-380.8723787305655</v>
-      </c>
-      <c r="J135">
-        <v>807.4866538572816</v>
-      </c>
-      <c r="K135">
-        <v>3795.394383632613</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>72</v>
-      </c>
-      <c r="B136" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>41.33188442996056</v>
-      </c>
-      <c r="G136">
-        <v>150.6599000173563</v>
-      </c>
-      <c r="H136">
-        <v>1777.05705670849</v>
-      </c>
-      <c r="I136">
-        <v>-324.1086257583609</v>
-      </c>
-      <c r="J136">
-        <v>750.253115365392</v>
-      </c>
-      <c r="K136">
-        <v>3656.988816459349</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>72</v>
-      </c>
-      <c r="B137" t="s">
-        <v>13</v>
-      </c>
-      <c r="C137" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>40.38259370487351</v>
-      </c>
-      <c r="G137">
-        <v>160.7414658089718</v>
-      </c>
-      <c r="H137">
-        <v>1791.145050107528</v>
-      </c>
-      <c r="I137">
-        <v>-265.947117590911</v>
-      </c>
-      <c r="J137">
-        <v>693.0195768735026</v>
-      </c>
-      <c r="K137">
-        <v>3498.656411462513</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>72</v>
-      </c>
-      <c r="B138" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>39.49580440281236</v>
-      </c>
-      <c r="G138">
-        <v>170.8230316005872</v>
-      </c>
-      <c r="H138">
-        <v>1804.608381875231</v>
-      </c>
-      <c r="I138">
-        <v>-206.3534357924442</v>
-      </c>
-      <c r="J138">
-        <v>635.7860383816129</v>
-      </c>
-      <c r="K138">
-        <v>3320.397168642102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>72</v>
-      </c>
-      <c r="B139" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>38.66494975370167</v>
-      </c>
-      <c r="G139">
-        <v>180.9045973922026</v>
-      </c>
-      <c r="H139">
-        <v>1817.500103040936</v>
-      </c>
-      <c r="I139">
-        <v>-145.2923144048717</v>
-      </c>
-      <c r="J139">
-        <v>578.5524998897235</v>
-      </c>
-      <c r="K139">
-        <v>3122.211087998119</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>72</v>
-      </c>
-      <c r="B140" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>37.88438951377233</v>
-      </c>
-      <c r="G140">
-        <v>190.986163183818</v>
-      </c>
-      <c r="H140">
-        <v>1829.866780782518</v>
-      </c>
-      <c r="I140">
-        <v>-82.72761907833176</v>
-      </c>
-      <c r="J140">
-        <v>521.318961397834</v>
-      </c>
-      <c r="K140">
-        <v>2904.098169530562</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>72</v>
-      </c>
-      <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>37.14924847276966</v>
-      </c>
-      <c r="G141">
-        <v>201.0677289754334</v>
-      </c>
-      <c r="H141">
-        <v>1841.749513796249</v>
-      </c>
-      <c r="I141">
-        <v>-18.62232568784034</v>
-      </c>
-      <c r="J141">
-        <v>464.0854229059443</v>
-      </c>
-      <c r="K141">
-        <v>2666.058413239431</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>72</v>
-      </c>
-      <c r="B142" t="s">
-        <v>13</v>
-      </c>
-      <c r="C142" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>36.45528806784738</v>
-      </c>
-      <c r="G142">
-        <v>211.1492947670489</v>
-      </c>
-      <c r="H142">
-        <v>1853.184756373903</v>
-      </c>
-      <c r="I142">
-        <v>47.0615015766036</v>
-      </c>
-      <c r="J142">
-        <v>406.8518844140549</v>
-      </c>
-      <c r="K142">
-        <v>2408.091819124728</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>72</v>
-      </c>
-      <c r="B143" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" t="s">
-        <v>19</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>35.7988033743631</v>
-      </c>
-      <c r="G143">
-        <v>221.2308605586643</v>
-      </c>
-      <c r="H143">
-        <v>1864.204992868143</v>
-      </c>
-      <c r="I143">
-        <v>114.3627326594213</v>
-      </c>
-      <c r="J143">
-        <v>349.6183459221652</v>
-      </c>
-      <c r="K143">
-        <v>2130.198387186451</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>72</v>
-      </c>
-      <c r="B144" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>35.17653975325928</v>
-      </c>
-      <c r="G144">
-        <v>231.3124263502797</v>
-      </c>
-      <c r="H144">
-        <v>1874.839294001866</v>
-      </c>
-      <c r="I144">
-        <v>183.3211946416567</v>
-      </c>
-      <c r="J144">
-        <v>292.3848074302759</v>
-      </c>
-      <c r="K144">
-        <v>1832.378117424601</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>72</v>
-      </c>
-      <c r="B145" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>34.58562487217825</v>
-      </c>
-      <c r="G145">
-        <v>241.3939921418951</v>
-      </c>
-      <c r="H145">
-        <v>1885.113779021932</v>
-      </c>
-      <c r="I145">
-        <v>253.9776953095823</v>
-      </c>
-      <c r="J145">
-        <v>235.1512689383863</v>
-      </c>
-      <c r="K145">
-        <v>1514.631009839176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>72</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>34.02351285893552</v>
-      </c>
-      <c r="G146">
-        <v>251.4755579335105</v>
-      </c>
-      <c r="H146">
-        <v>1895.052002195866</v>
-      </c>
-      <c r="I146">
-        <v>326.3740473036674</v>
-      </c>
-      <c r="J146">
-        <v>177.9177304464966</v>
-      </c>
-      <c r="K146">
-        <v>1176.957064430179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>72</v>
-      </c>
-      <c r="B147" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>33.48793810952065</v>
-      </c>
-      <c r="G147">
-        <v>261.5571237251259</v>
-      </c>
-      <c r="H147">
-        <v>1904.675278044089</v>
-      </c>
-      <c r="I147">
-        <v>400.5530928621832</v>
-      </c>
-      <c r="J147">
-        <v>120.6841919546073</v>
-      </c>
-      <c r="K147">
-        <v>819.3562811976094</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>72</v>
-      </c>
-      <c r="B148" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>32.97687683876316</v>
-      </c>
-      <c r="G148">
-        <v>271.6386895167413</v>
-      </c>
-      <c r="H148">
-        <v>1914.002956603885</v>
-      </c>
-      <c r="I148">
-        <v>476.5587291741085</v>
-      </c>
-      <c r="J148">
-        <v>63.45065346271761</v>
-      </c>
-      <c r="K148">
-        <v>441.828660141465</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>72</v>
-      </c>
-      <c r="B149" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>32.48851488562032</v>
-      </c>
-      <c r="G149">
-        <v>281.7202553083568</v>
-      </c>
-      <c r="H149">
-        <v>1923.052657663598</v>
-      </c>
-      <c r="I149">
-        <v>554.435934356311</v>
-      </c>
-      <c r="J149">
-        <v>6.217114970827974</v>
-      </c>
-      <c r="K149">
-        <v>44.37420126174764</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>72</v>
-      </c>
-      <c r="B150" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>32.02122060547115</v>
-      </c>
-      <c r="G150">
-        <v>291.8018210999722</v>
-      </c>
-      <c r="H150">
-        <v>1931.84047109399</v>
-      </c>
-      <c r="I150">
-        <v>634.2307940704096</v>
-      </c>
-      <c r="J150">
-        <v>-51.0164235210614</v>
-      </c>
-      <c r="K150">
-        <v>-373.0070954415419</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>72</v>
-      </c>
-      <c r="B151" t="s">
-        <v>13</v>
-      </c>
-      <c r="C151" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" t="s">
-        <v>19</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>31.57352192622843</v>
-      </c>
-      <c r="G151">
-        <v>301.8833868915876</v>
-      </c>
-      <c r="H151">
-        <v>1940.381128999949</v>
-      </c>
-      <c r="I151">
-        <v>715.9905287950435</v>
-      </c>
-      <c r="J151">
-        <v>-108.249962012951</v>
-      </c>
-      <c r="K151">
-        <v>-810.3152299684061</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>72</v>
-      </c>
-      <c r="B152" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>31.14408683310188</v>
-      </c>
-      <c r="G152">
-        <v>311.964952683203</v>
-      </c>
-      <c r="H152">
-        <v>1948.688154319363</v>
-      </c>
-      <c r="I152">
-        <v>799.7635217696952</v>
-      </c>
-      <c r="J152">
-        <v>-165.4835005048407</v>
-      </c>
-      <c r="K152">
-        <v>-1267.550202318845</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>72</v>
-      </c>
-      <c r="B153" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>30.7317066926289</v>
-      </c>
-      <c r="G153">
-        <v>322.0465184748184</v>
-      </c>
-      <c r="H153">
-        <v>1956.773989633217</v>
-      </c>
-      <c r="I153">
-        <v>885.5993476266073</v>
-      </c>
-      <c r="J153">
-        <v>-222.7170389967303</v>
-      </c>
-      <c r="K153">
-        <v>-1744.712012492856</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>72</v>
-      </c>
-      <c r="B154" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>30.33528194045442</v>
-      </c>
-      <c r="G154">
-        <v>332.1280842664338</v>
-      </c>
-      <c r="H154">
-        <v>1964.650109267365</v>
-      </c>
-      <c r="I154">
-        <v>973.5488017277335</v>
-      </c>
-      <c r="J154">
-        <v>-279.9505774886194</v>
-      </c>
-      <c r="K154">
-        <v>-2241.800660490437</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>72</v>
-      </c>
-      <c r="B155" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>29.95380974690996</v>
-      </c>
-      <c r="G155">
-        <v>342.2096500580492</v>
-      </c>
-      <c r="H155">
-        <v>1972.327117221083</v>
-      </c>
-      <c r="I155">
-        <v>1063.663930224087</v>
-      </c>
-      <c r="J155">
-        <v>-337.184115980509</v>
-      </c>
-      <c r="K155">
-        <v>-2758.816146311594</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>72</v>
-      </c>
-      <c r="B156" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>29.58637334535917</v>
-      </c>
-      <c r="G156">
-        <v>352.2912158496647</v>
-      </c>
-      <c r="H156">
-        <v>1979.814833019807</v>
-      </c>
-      <c r="I156">
-        <v>1155.998060855264</v>
-      </c>
-      <c r="J156">
-        <v>-394.4176544723987</v>
-      </c>
-      <c r="K156">
-        <v>-3295.758469956326</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>72</v>
-      </c>
-      <c r="B157" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" t="s">
-        <v>16</v>
-      </c>
-      <c r="D157" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>29.23213276478247</v>
-      </c>
-      <c r="G157">
-        <v>362.3727816412801</v>
-      </c>
-      <c r="H157">
-        <v>1987.122367236054</v>
-      </c>
-      <c r="I157">
-        <v>1250.605834507392</v>
-      </c>
-      <c r="J157">
-        <v>-451.6511929642883</v>
-      </c>
-      <c r="K157">
-        <v>-3852.627631424631</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>72</v>
-      </c>
-      <c r="B158" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>28.89031675336417</v>
-      </c>
-      <c r="G158">
-        <v>372.4543474328955</v>
-      </c>
-      <c r="H158">
-        <v>1994.258188135567</v>
-      </c>
-      <c r="I158">
-        <v>1347.543237548148</v>
-      </c>
-      <c r="J158">
-        <v>-508.884731456178</v>
-      </c>
-      <c r="K158">
-        <v>-4429.423630716508</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>72</v>
-      </c>
-      <c r="B159" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>28.56021571634658</v>
-      </c>
-      <c r="G159">
-        <v>382.5359132245109</v>
-      </c>
-      <c r="H159">
-        <v>2001.230180671484</v>
-      </c>
-      <c r="I159">
-        <v>1446.867634958005</v>
-      </c>
-      <c r="J159">
-        <v>-566.1182699480671</v>
-      </c>
-      <c r="K159">
-        <v>-5026.146467831955</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>72</v>
-      </c>
-      <c r="B160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>28.24117552099866</v>
-      </c>
-      <c r="G160">
-        <v>392.6174790161263</v>
-      </c>
-      <c r="H160">
-        <v>2008.045698857193</v>
-      </c>
-      <c r="I160">
-        <v>1548.637804277312</v>
-      </c>
-      <c r="J160">
-        <v>-623.3518084399567</v>
-      </c>
-      <c r="K160">
-        <v>-5642.796142770981</v>
+        <v>3980084.651161585</v>
       </c>
     </row>
   </sheetData>
